--- a/08-31-25 to 09-06-25 Madison Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Madison Schedule.xlsx
@@ -1372,7 +1372,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1431,10 +1431,15 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1500,13 +1505,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t xml:space="preserve">Driver 1/2  </t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1568,14 +1572,10 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Driver 1/2  </t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1640,10 +1640,15 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1712,13 +1717,13 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1772,13 +1777,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1836,7 +1840,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -1904,7 +1908,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -1952,21 +1956,9 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -2031,7 +2023,11 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2072,7 +2068,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2115,7 +2111,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2159,7 +2155,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
+          <t>3338 N MAIN ST</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2202,7 +2198,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>3338 N MAIN ST</t>
+          <t>https://goo.gl/maps/PPgMB73RP522</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2241,7 +2237,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PPgMB73RP522</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2290,11 +2286,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2336,9 +2328,21 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -2391,19 +2395,15 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
@@ -2462,12 +2462,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2521,12 +2521,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2581,12 +2581,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2640,12 +2640,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2699,12 +2699,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2746,12 +2746,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2791,16 +2791,8 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">

--- a/08-31-25 to 09-06-25 Madison Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Madison Schedule.xlsx
@@ -1908,7 +1908,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">

--- a/08-31-25 to 09-06-25 Madison Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Madison Schedule.xlsx
@@ -1734,10 +1734,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Driver 1/2</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1793,12 +1797,13 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -1856,13 +1861,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -1917,21 +1921,9 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -1992,7 +1984,11 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2033,7 +2029,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2076,7 +2072,8 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #431, FRANKLIN- 
+S LOVERS LANE RD</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2119,8 +2116,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>PICK #431, FRANKLIN- 
-S LOVERS LANE RD</t>
+          <t>7780 S LOVERS LANE ROAD</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2163,7 +2159,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>7780 S LOVERS LANE ROAD</t>
+          <t>https://goo.gl/maps/vq4QCMAV1rj</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2206,7 +2202,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vq4QCMAV1rj</t>
+          <t>SET UP ON REG CLOSEST TOWARDS RESTROOMS</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2245,7 +2241,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>SET UP ON REG CLOSEST TOWARDS RESTROOMS</t>
+          <t>FEW RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2290,11 +2286,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>FEW RESETS-REMAPPED</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2344,9 +2336,21 @@
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2407,17 +2411,17 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2474,12 +2478,12 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -2533,12 +2537,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2593,12 +2597,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2652,12 +2656,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -2711,12 +2715,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -2758,12 +2762,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -2797,12 +2801,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -2840,12 +2844,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -2883,12 +2887,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -2924,21 +2928,9 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>

--- a/08-31-25 to 09-06-25 Madison Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Madison Schedule.xlsx
@@ -2661,12 +2661,13 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2720,7 +2721,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -2767,12 +2768,13 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -2806,7 +2808,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -2849,7 +2851,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -2892,7 +2894,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -2928,9 +2930,21 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>

--- a/08-31-25 to 09-06-25 Madison Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Madison Schedule.xlsx
@@ -1202,15 +1202,10 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1280,7 +1275,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1343,7 +1338,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1407,10 +1402,15 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1471,15 +1471,10 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1544,10 +1539,15 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1607,13 +1607,13 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Camry 3</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1677,22 +1677,9 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1819,7 +1806,11 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
@@ -1884,7 +1875,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1939,7 +1930,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>DHILLON'S BP, IRON RIDGE</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1970,7 +1961,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, IRON RIDGE</t>
+          <t>210 W PLEASANT ST</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2005,7 +1996,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>210 W PLEASANT ST</t>
+          <t>https://goo.gl/maps/qwc1LRfmy572</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2048,7 +2039,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qwc1LRfmy572</t>
+          <t>4:00 am IL office leave time</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2092,7 +2083,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>4:00 am IL office leave time</t>
+          <t>*4:45 am meet at Janesville Park n Ride</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2135,7 +2126,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>*4:45 am meet at Janesville Park n Ride</t>
+          <t>550 Midland Ct, Janesville</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2176,11 +2167,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>550 Midland Ct, Janesville</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2218,9 +2205,21 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2259,17 +2258,17 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver (from Janesville)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -2302,17 +2301,17 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Driver (from Janesville)</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2365,17 +2364,17 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Optima (to Janesville)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2436,21 +2435,9 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Optima (to Janesville)</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>

--- a/08-31-25 to 09-06-25 Madison Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Madison Schedule.xlsx
@@ -1047,8 +1047,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>@ Store,
-Driver, 1/2
+          <t>@ Store, Driver,
 Optima,
 Equip</t>
         </is>
@@ -1662,7 +1661,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>@ Store w/ Nate, Driver 1/2</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
